--- a/biology/Botanique/Pulicaria_canariensis/Pulicaria_canariensis.xlsx
+++ b/biology/Botanique/Pulicaria_canariensis/Pulicaria_canariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulicaria canariensis est une espèce de plantes à fleurs de la famille des Asteraceae originaire des îles Canaries.
 </t>
@@ -511,7 +523,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En espagnolː Pulicaria purpuraria
 </t>
@@ -542,10 +556,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pulicaria canariensis Bolle ssp canariensis[1].
-Pulicaria canariensis Bolle ssp.lanata [2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pulicaria canariensis Bolle ssp canariensis.
+Pulicaria canariensis Bolle ssp.lanata .</t>
         </is>
       </c>
     </row>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs sont groupées en grands capitules (3 centimètres de diamètre) de couleur jaune, s'épanouissant en avril-mai[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont groupées en grands capitules (3 centimètres de diamètre) de couleur jaune, s'épanouissant en avril-mai.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les rochers anciens, en bordure d'océan.
 </t>
@@ -635,7 +655,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Endémique à Lanzarote et Fuerteventura.
 </t>
